--- a/DSSV/ds_20161.xlsx
+++ b/DSSV/ds_20161.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="838" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="840" uniqueCount="168">
   <si>
     <t>AB</t>
   </si>
@@ -567,12 +567,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3478,10 +3479,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E70"/>
+  <dimension ref="A1:F70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D71" sqref="D71"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3489,9 +3490,10 @@
     <col min="1" max="1" width="4.5" customWidth="1"/>
     <col min="2" max="2" width="20" customWidth="1"/>
     <col min="3" max="3" width="5.125" customWidth="1"/>
+    <col min="5" max="5" width="9.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1">
         <v>1</v>
       </c>
@@ -3505,7 +3507,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>2</v>
       </c>
@@ -3518,8 +3520,11 @@
       <c r="D2" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E2" s="5">
+        <v>42695</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>3</v>
       </c>
@@ -3532,8 +3537,14 @@
       <c r="D3" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E3" t="s">
+        <v>132</v>
+      </c>
+      <c r="F3" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>5</v>
       </c>
@@ -3547,7 +3558,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>6</v>
       </c>
@@ -3561,7 +3572,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>8</v>
       </c>
@@ -3575,7 +3586,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>11</v>
       </c>
@@ -3589,7 +3600,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>12</v>
       </c>
@@ -3603,7 +3614,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>14</v>
       </c>
@@ -3617,7 +3628,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>15</v>
       </c>
@@ -3631,7 +3642,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>16</v>
       </c>
@@ -3645,7 +3656,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>18</v>
       </c>
@@ -3659,7 +3670,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>20</v>
       </c>
@@ -3673,7 +3684,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>21</v>
       </c>
@@ -3687,7 +3698,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>25</v>
       </c>
@@ -3701,7 +3712,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>27</v>
       </c>

--- a/DSSV/ds_20161.xlsx
+++ b/DSSV/ds_20161.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="840" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="841" uniqueCount="168">
   <si>
     <t>AB</t>
   </si>
@@ -3481,8 +3481,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F70"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView tabSelected="1" topLeftCell="A33" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E38" sqref="E38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4015,6 +4015,9 @@
       </c>
       <c r="C37" s="1" t="s">
         <v>131</v>
+      </c>
+      <c r="E37" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">

--- a/DSSV/ds_20161.xlsx
+++ b/DSSV/ds_20161.xlsx
@@ -3479,10 +3479,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F70"/>
+  <dimension ref="A1:N70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E38" sqref="E38"/>
+    <sheetView tabSelected="1" topLeftCell="A42" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M53" sqref="M53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3491,9 +3491,10 @@
     <col min="2" max="2" width="20" customWidth="1"/>
     <col min="3" max="3" width="5.125" customWidth="1"/>
     <col min="5" max="5" width="9.875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1">
         <v>1</v>
       </c>
@@ -3507,7 +3508,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>2</v>
       </c>
@@ -3520,11 +3521,8 @@
       <c r="D2" t="s">
         <v>134</v>
       </c>
-      <c r="E2" s="5">
-        <v>42695</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>3</v>
       </c>
@@ -3537,14 +3535,8 @@
       <c r="D3" t="s">
         <v>136</v>
       </c>
-      <c r="E3" t="s">
-        <v>132</v>
-      </c>
-      <c r="F3" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>5</v>
       </c>
@@ -3558,7 +3550,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>6</v>
       </c>
@@ -3572,7 +3564,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>8</v>
       </c>
@@ -3586,7 +3578,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>11</v>
       </c>
@@ -3600,7 +3592,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>12</v>
       </c>
@@ -3614,7 +3606,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>14</v>
       </c>
@@ -3628,7 +3620,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>15</v>
       </c>
@@ -3642,7 +3634,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>16</v>
       </c>
@@ -3656,7 +3648,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>18</v>
       </c>
@@ -3670,7 +3662,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>20</v>
       </c>
@@ -3684,7 +3676,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>21</v>
       </c>
@@ -3698,7 +3690,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>25</v>
       </c>
@@ -3712,7 +3704,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>27</v>
       </c>
@@ -4174,7 +4166,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>43</v>
       </c>
@@ -4188,7 +4180,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>44</v>
       </c>
@@ -4202,7 +4194,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>46</v>
       </c>
@@ -4216,7 +4208,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>49</v>
       </c>
@@ -4230,7 +4222,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>51</v>
       </c>
@@ -4244,7 +4236,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>54</v>
       </c>
@@ -4258,7 +4250,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>55</v>
       </c>
@@ -4272,7 +4264,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B58" s="1" t="s">
         <v>154</v>
       </c>
@@ -4280,30 +4272,39 @@
         <v>156</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B59" s="1" t="s">
         <v>155</v>
       </c>
       <c r="D59" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="M59" s="5">
+        <v>42695</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D60" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="M60" t="s">
+        <v>132</v>
+      </c>
+      <c r="N60" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D61" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D62" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D63" t="s">
         <v>160</v>
       </c>

--- a/DSSV/ds_20161.xlsx
+++ b/DSSV/ds_20161.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="841" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="846" uniqueCount="173">
   <si>
     <t>AB</t>
   </si>
@@ -501,9 +501,6 @@
     <t>tuần 15: nhắc nộp báo cáo.</t>
   </si>
   <si>
-    <t>Báo cáo: tuần 16 (hạn cuối cùng, thứ 2-tuần 16)-&gt; Lên lịch -&gt; các nhóm bảo vệ theo đúng trình tự</t>
-  </si>
-  <si>
     <t>Trình bầy+chương trình+báo cáo</t>
   </si>
   <si>
@@ -520,6 +517,24 @@
   </si>
   <si>
     <t>Thời gian cho mỗi nhóm 15', các thành viên có mặt là bắt buộc.</t>
+  </si>
+  <si>
+    <t>Báo cáo: tuần 16 -&gt; Lên lịch -&gt; các nhóm bảo vệ theo đúng trình tự</t>
+  </si>
+  <si>
+    <t>09/12 nop qua email, cham 1 ngay tru 1 diem</t>
+  </si>
+  <si>
+    <t>12,14/12 bao ve</t>
+  </si>
+  <si>
+    <t>in bao cao</t>
+  </si>
+  <si>
+    <t>slide</t>
+  </si>
+  <si>
+    <t>demo</t>
   </si>
 </sst>
 </file>
@@ -3481,8 +3496,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A42" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M53" sqref="M53"/>
+    <sheetView tabSelected="1" topLeftCell="A49" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B66" sqref="B66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4300,43 +4315,60 @@
       </c>
     </row>
     <row r="62" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B62" t="s">
+        <v>168</v>
+      </c>
       <c r="D62" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
     </row>
     <row r="63" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B63" t="s">
+        <v>169</v>
+      </c>
       <c r="D63" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="65" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B64" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="65" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B65" t="s">
+        <v>171</v>
+      </c>
       <c r="D65" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="66" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B66" t="s">
+        <v>172</v>
+      </c>
+      <c r="D66" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="66" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D66" t="s">
+    <row r="67" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D67" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="67" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D67" t="s">
+    <row r="68" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D68" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="68" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D68" t="s">
+    <row r="69" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D69" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="69" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D69" t="s">
+    <row r="70" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D70" t="s">
         <v>166</v>
-      </c>
-    </row>
-    <row r="70" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D70" t="s">
-        <v>167</v>
       </c>
     </row>
   </sheetData>

--- a/DSSV/ds_20161.xlsx
+++ b/DSSV/ds_20161.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="846" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="875" uniqueCount="175">
   <si>
     <t>AB</t>
   </si>
@@ -535,6 +535,12 @@
   </si>
   <si>
     <t>demo</t>
+  </si>
+  <si>
+    <t>0.5</t>
+  </si>
+  <si>
+    <t>1.0</t>
   </si>
 </sst>
 </file>
@@ -3496,8 +3502,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B66" sqref="B66"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3509,7 +3515,7 @@
     <col min="13" max="13" width="13.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1">
         <v>1</v>
       </c>
@@ -3522,8 +3528,11 @@
       <c r="D1" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F1" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>2</v>
       </c>
@@ -3536,8 +3545,11 @@
       <c r="D2" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F2" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>3</v>
       </c>
@@ -3550,8 +3562,11 @@
       <c r="D3" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F3" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>5</v>
       </c>
@@ -3565,7 +3580,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>6</v>
       </c>
@@ -3579,7 +3594,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>8</v>
       </c>
@@ -3593,7 +3608,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>11</v>
       </c>
@@ -3606,8 +3621,11 @@
       <c r="D7" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F7" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>12</v>
       </c>
@@ -3620,8 +3638,11 @@
       <c r="D8" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F8" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>14</v>
       </c>
@@ -3634,8 +3655,11 @@
       <c r="D9" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F9" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>15</v>
       </c>
@@ -3648,8 +3672,11 @@
       <c r="D10" s="4" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F10" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>16</v>
       </c>
@@ -3662,8 +3689,11 @@
       <c r="D11" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F11" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>18</v>
       </c>
@@ -3676,8 +3706,11 @@
       <c r="D12" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F12" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>20</v>
       </c>
@@ -3690,8 +3723,11 @@
       <c r="D13" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F13" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>21</v>
       </c>
@@ -3704,8 +3740,11 @@
       <c r="D14" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F14" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>25</v>
       </c>
@@ -3719,7 +3758,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>27</v>
       </c>
@@ -3732,8 +3771,11 @@
       <c r="D16" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F16" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>28</v>
       </c>
@@ -3746,8 +3788,11 @@
       <c r="D17" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F17" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>31</v>
       </c>
@@ -3760,8 +3805,11 @@
       <c r="D18" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F18" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>33</v>
       </c>
@@ -3774,8 +3822,11 @@
       <c r="D19" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F19" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>34</v>
       </c>
@@ -3789,7 +3840,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>35</v>
       </c>
@@ -3802,8 +3853,11 @@
       <c r="D21" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F21" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>36</v>
       </c>
@@ -3816,8 +3870,11 @@
       <c r="D22" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F22" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>37</v>
       </c>
@@ -3830,8 +3887,11 @@
       <c r="D23" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F23" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>39</v>
       </c>
@@ -3844,8 +3904,11 @@
       <c r="D24" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F24" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>41</v>
       </c>
@@ -3858,8 +3921,11 @@
       <c r="D25" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F25" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>45</v>
       </c>
@@ -3872,8 +3938,11 @@
       <c r="D26" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F26" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>47</v>
       </c>
@@ -3887,7 +3956,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>48</v>
       </c>
@@ -3900,8 +3969,11 @@
       <c r="D28" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F28" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>50</v>
       </c>
@@ -3914,8 +3986,11 @@
       <c r="D29" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F29" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>52</v>
       </c>
@@ -3929,7 +4004,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>53</v>
       </c>
@@ -3943,7 +4018,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>4</v>
       </c>
@@ -3956,8 +4031,11 @@
       <c r="D32" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F32" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>7</v>
       </c>
@@ -3970,8 +4048,11 @@
       <c r="D33" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F33" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>9</v>
       </c>
@@ -3985,7 +4066,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>10</v>
       </c>
@@ -3999,7 +4080,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>13</v>
       </c>
@@ -4013,7 +4094,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>17</v>
       </c>
@@ -4026,8 +4107,11 @@
       <c r="E37" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F37" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>19</v>
       </c>
@@ -4041,7 +4125,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>22</v>
       </c>
@@ -4054,8 +4138,11 @@
       <c r="D39" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F39" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>23</v>
       </c>
@@ -4069,7 +4156,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>24</v>
       </c>
@@ -4083,7 +4170,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>26</v>
       </c>
@@ -4097,7 +4184,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>29</v>
       </c>
@@ -4111,7 +4198,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>30</v>
       </c>
@@ -4124,8 +4211,11 @@
       <c r="D44" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F44" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>32</v>
       </c>
@@ -4139,7 +4229,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>38</v>
       </c>
@@ -4153,7 +4243,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>40</v>
       </c>
@@ -4167,7 +4257,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>42</v>
       </c>
@@ -4179,6 +4269,9 @@
       </c>
       <c r="D48" t="s">
         <v>140</v>
+      </c>
+      <c r="F48" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.2">

--- a/DSSV/ds_20161.xlsx
+++ b/DSSV/ds_20161.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="875" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="927" uniqueCount="181">
   <si>
     <t>AB</t>
   </si>
@@ -541,6 +541,24 @@
   </si>
   <si>
     <t>1.0</t>
+  </si>
+  <si>
+    <t>prj</t>
+  </si>
+  <si>
+    <t>7.5</t>
+  </si>
+  <si>
+    <t>8.0</t>
+  </si>
+  <si>
+    <t>9.0</t>
+  </si>
+  <si>
+    <t>8.5</t>
+  </si>
+  <si>
+    <t>8.0(7.5+)</t>
   </si>
 </sst>
 </file>
@@ -3500,10 +3518,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N70"/>
+  <dimension ref="A1:N71"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3515,207 +3533,228 @@
     <col min="13" max="13" width="13.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1">
-        <v>1</v>
-      </c>
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G1" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="C2" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="D2" t="s">
         <v>133</v>
-      </c>
-      <c r="F1" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2">
-        <v>2</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="D2" t="s">
-        <v>134</v>
       </c>
       <c r="F2" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G2" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>130</v>
       </c>
       <c r="D3" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F3" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G3" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="D4" t="s">
+        <v>136</v>
+      </c>
+      <c r="F4" t="s">
+        <v>173</v>
+      </c>
+      <c r="G4" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5">
         <v>5</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B5" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="D4" t="s">
+      <c r="C5" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="D5" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5">
+      <c r="G5" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6">
         <v>6</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B6" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="D5" t="s">
+      <c r="C6" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="D6" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6">
-        <v>8</v>
-      </c>
-      <c r="B6" s="1" t="s">
+      <c r="G6" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>8</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="D6" t="s">
+      <c r="C7" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="D7" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7">
+      <c r="G7" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8">
         <v>11</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B8" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="D7" t="s">
+      <c r="C8" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="D8" t="s">
         <v>145</v>
-      </c>
-      <c r="F7" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8">
-        <v>12</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="D8" t="s">
-        <v>147</v>
       </c>
       <c r="F8" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G8" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>130</v>
       </c>
       <c r="D9" t="s">
-        <v>136</v>
+        <v>147</v>
       </c>
       <c r="F9" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G9" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="D10" s="4" t="s">
-        <v>147</v>
+      <c r="D10" t="s">
+        <v>136</v>
       </c>
       <c r="F10" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G10" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="D11" t="s">
-        <v>136</v>
+      <c r="D11" s="4" t="s">
+        <v>147</v>
       </c>
       <c r="F11" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G11" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>130</v>
       </c>
       <c r="D12" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F12" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G12" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>130</v>
@@ -3726,211 +3765,250 @@
       <c r="F13" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G13" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>130</v>
       </c>
       <c r="D14" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="F14" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G14" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15">
+        <v>21</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="D15" t="s">
+        <v>145</v>
+      </c>
+      <c r="F15" t="s">
+        <v>173</v>
+      </c>
+      <c r="G15" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16">
         <v>25</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B16" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="C15" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="D15" t="s">
+      <c r="C16" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="D16" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16">
+      <c r="G16" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17">
         <v>27</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B17" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="C16" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="D16" t="s">
+      <c r="C17" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="D17" t="s">
         <v>132</v>
-      </c>
-      <c r="F16" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A17">
-        <v>28</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="D17" t="s">
-        <v>147</v>
       </c>
       <c r="F17" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G17" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>130</v>
       </c>
       <c r="D18" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="F18" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G18" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>130</v>
       </c>
       <c r="D19" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="F19" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G19" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20">
+        <v>33</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="D20" t="s">
+        <v>148</v>
+      </c>
+      <c r="F20" t="s">
+        <v>173</v>
+      </c>
+      <c r="G20" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A21">
         <v>34</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B21" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="C20" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="D20" t="s">
+      <c r="C21" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="D21" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A21">
+      <c r="G21" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A22">
         <v>35</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="B22" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="C21" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="D21" t="s">
+      <c r="C22" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="D22" t="s">
         <v>145</v>
-      </c>
-      <c r="F21" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A22">
-        <v>36</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="D22" t="s">
-        <v>134</v>
       </c>
       <c r="F22" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G22" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>130</v>
       </c>
       <c r="D23" t="s">
-        <v>148</v>
+        <v>134</v>
       </c>
       <c r="F23" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G23" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24">
+        <v>37</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="D24" t="s">
+        <v>148</v>
+      </c>
+      <c r="F24" t="s">
+        <v>173</v>
+      </c>
+      <c r="G24" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A25">
         <v>39</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="B25" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="C24" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="D24" t="s">
+      <c r="C25" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="D25" t="s">
         <v>146</v>
-      </c>
-      <c r="F24" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A25">
-        <v>41</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="D25" t="s">
-        <v>132</v>
       </c>
       <c r="F25" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G25" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>130</v>
@@ -3939,229 +4017,277 @@
         <v>132</v>
       </c>
       <c r="F26" t="s">
+        <v>174</v>
+      </c>
+      <c r="G26" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>45</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="D27" t="s">
+        <v>132</v>
+      </c>
+      <c r="F27" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A27">
+      <c r="G27" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A28">
         <v>47</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="B28" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="C27" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="D27" t="s">
+      <c r="C28" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="D28" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A28">
+      <c r="G28" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A29">
         <v>48</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="B29" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="C28" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="D28" t="s">
+      <c r="C29" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="D29" t="s">
         <v>150</v>
-      </c>
-      <c r="F28" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A29">
-        <v>50</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="D29" t="s">
-        <v>142</v>
       </c>
       <c r="F29" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G29" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30">
+        <v>50</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="D30" t="s">
+        <v>142</v>
+      </c>
+      <c r="F30" t="s">
+        <v>173</v>
+      </c>
+      <c r="G30" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A31">
         <v>52</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="B31" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="C30" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="D30" t="s">
+      <c r="C31" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="D31" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A31">
+      <c r="G31" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A32">
         <v>53</v>
       </c>
-      <c r="B31" s="1" t="s">
+      <c r="B32" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="C31" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="D31" t="s">
+      <c r="C32" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="D32" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A32">
-        <v>4</v>
-      </c>
-      <c r="B32" s="1" t="s">
+      <c r="G32" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>4</v>
+      </c>
+      <c r="B33" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="D32" t="s">
-        <v>136</v>
-      </c>
-      <c r="F32" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A33">
-        <v>7</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>26</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>131</v>
       </c>
       <c r="D33" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="F33" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G33" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>131</v>
       </c>
       <c r="D34" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+        <v>132</v>
+      </c>
+      <c r="F34" t="s">
+        <v>173</v>
+      </c>
+      <c r="G34" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="E35" s="4" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D35" t="s">
+        <v>142</v>
+      </c>
+      <c r="G35" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="D36" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E36" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="G36" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="E37" t="s">
-        <v>151</v>
-      </c>
-      <c r="F37" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D37" t="s">
+        <v>147</v>
+      </c>
+      <c r="G37" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="D38" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E38" t="s">
+        <v>151</v>
+      </c>
+      <c r="F38" t="s">
+        <v>173</v>
+      </c>
+      <c r="G38" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>131</v>
       </c>
       <c r="D39" t="s">
-        <v>139</v>
-      </c>
-      <c r="F39" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+        <v>145</v>
+      </c>
+      <c r="G39" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="E40" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D40" t="s">
+        <v>139</v>
+      </c>
+      <c r="F40" t="s">
+        <v>173</v>
+      </c>
+      <c r="G40" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>131</v>
@@ -4169,13 +4295,16 @@
       <c r="E41" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G41" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>131</v>
@@ -4183,13 +4312,16 @@
       <c r="E42" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G42" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>131</v>
@@ -4197,117 +4329,141 @@
       <c r="E43" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G43" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="D44" t="s">
-        <v>141</v>
-      </c>
-      <c r="F44" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E44" t="s">
+        <v>151</v>
+      </c>
+      <c r="G44" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>131</v>
       </c>
       <c r="D45" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+        <v>141</v>
+      </c>
+      <c r="F45" t="s">
+        <v>173</v>
+      </c>
+      <c r="G45" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>131</v>
       </c>
       <c r="D46" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+        <v>137</v>
+      </c>
+      <c r="G46" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>131</v>
       </c>
       <c r="D47" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+        <v>148</v>
+      </c>
+      <c r="G47" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A48">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>131</v>
       </c>
       <c r="D48" t="s">
-        <v>140</v>
-      </c>
-      <c r="F48" t="s">
-        <v>173</v>
+        <v>147</v>
+      </c>
+      <c r="G48" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A49">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>131</v>
       </c>
       <c r="D49" t="s">
-        <v>138</v>
+        <v>140</v>
+      </c>
+      <c r="F49" t="s">
+        <v>173</v>
+      </c>
+      <c r="G49" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A50">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="E50" t="s">
-        <v>152</v>
+      <c r="D50" t="s">
+        <v>138</v>
+      </c>
+      <c r="G50" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A51">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>131</v>
@@ -4318,10 +4474,10 @@
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A52">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>131</v>
@@ -4332,135 +4488,155 @@
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A53">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="C53" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="D53" t="s">
-        <v>134</v>
+      <c r="E53" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A54">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="C54" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="E54" t="s">
-        <v>152</v>
+      <c r="D54" t="s">
+        <v>134</v>
+      </c>
+      <c r="G54" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A55">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="C55" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="D55" t="s">
+      <c r="E55" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A56">
+        <v>55</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="D56" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B58" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="D58" t="s">
-        <v>156</v>
+      <c r="G56" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B59" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="D59" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B60" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="D59" t="s">
+      <c r="D60" t="s">
         <v>157</v>
       </c>
-      <c r="M59" s="5">
+      <c r="M60" s="5">
         <v>42695</v>
-      </c>
-    </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="D60" t="s">
-        <v>159</v>
-      </c>
-      <c r="M60" t="s">
-        <v>132</v>
-      </c>
-      <c r="N60" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="61" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D61" t="s">
+        <v>159</v>
+      </c>
+      <c r="M61" t="s">
+        <v>132</v>
+      </c>
+      <c r="N61" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="D62" t="s">
         <v>158</v>
-      </c>
-    </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B62" t="s">
-        <v>168</v>
-      </c>
-      <c r="D62" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="63" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B63" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D63" t="s">
-        <v>160</v>
+        <v>167</v>
       </c>
     </row>
     <row r="64" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B64" t="s">
-        <v>170</v>
+        <v>169</v>
+      </c>
+      <c r="D64" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="65" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B65" t="s">
-        <v>171</v>
-      </c>
-      <c r="D65" t="s">
-        <v>161</v>
+        <v>170</v>
       </c>
     </row>
     <row r="66" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B66" t="s">
+        <v>171</v>
+      </c>
+      <c r="D66" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="67" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B67" t="s">
         <v>172</v>
       </c>
-      <c r="D66" t="s">
+      <c r="D67" t="s">
         <v>162</v>
-      </c>
-    </row>
-    <row r="67" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="D67" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="68" spans="2:4" x14ac:dyDescent="0.2">
       <c r="D68" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="69" spans="2:4" x14ac:dyDescent="0.2">
       <c r="D69" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="70" spans="2:4" x14ac:dyDescent="0.2">
       <c r="D70" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="71" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D71" t="s">
         <v>166</v>
       </c>
     </row>
